--- a/data/long_dif/P30-Estudios-long_dif.xlsx
+++ b/data/long_dif/P30-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>18,81%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 28,93</t>
+          <t>12,13; 27,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 25,2</t>
+          <t>11,6; 23,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 26,42</t>
+          <t>21,95; 59,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,97; 23,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 25,09</t>
+          <t>14,65; 29,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 21,92</t>
+          <t>14,32; 23,76</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16,36; 30,84</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 27,33</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14,18; 22,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,45; 41,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>61,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,88%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>59,88%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59,8%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>48,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,96; 62,1</t>
+          <t>29,88; 53,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,14; 68,15</t>
+          <t>50,91; 68,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,59; 63,13</t>
+          <t>28,75; 57,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,77; 68,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,86; 59,38</t>
+          <t>44,36; 61,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,89; 65,92</t>
+          <t>53,8; 66,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43,35; 60,86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40,02; 55,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>54,74; 65,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>39,13; 55,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,3%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,33%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,36; 43,79</t>
+          <t>25,51; 58,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 30,07</t>
+          <t>17,17; 30,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,21; 33,57</t>
+          <t>12,32; 29,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,36; 25,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,75; 35,91</t>
+          <t>19,59; 34,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 25,37</t>
+          <t>16,45; 27,09</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 34,86</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 43,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,01; 26,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 29,25</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 31,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,92; 29,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,23; 30,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 23,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,37; 28,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>25,96%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27,76%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,51%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,29; 57,02</t>
+          <t>20,29; 34,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,87; 57,07</t>
+          <t>19,43; 28,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,19; 60,92</t>
+          <t>16,94; 26,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,05; 59,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,47; 57,02</t>
+          <t>12,8; 20,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,37; 56,55</t>
+          <t>21,95; 30,25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 33,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,82; 26,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,72; 27,68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21,23; 28,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>55,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>54,63%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>49,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53,11%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53,3%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50,53%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,62; 29,46</t>
+          <t>43,17; 57,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 29,16</t>
+          <t>46,75; 57,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,55; 33,14</t>
+          <t>44,39; 57,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,8; 23,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,88; 29,99</t>
+          <t>49,67; 60,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 24,67</t>
+          <t>49,88; 59,39</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43,1; 54,69</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48,42; 57,73</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>49,42; 56,58</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46,23; 55,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25,53%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,95%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,6; 28,13</t>
+          <t>17,5; 28,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 30,22</t>
+          <t>20,0; 28,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,89; 19,27</t>
+          <t>20,85; 35,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,38; 26,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,79; 21,87</t>
+          <t>23,28; 33,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,35; 26,9</t>
+          <t>15,61; 23,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19,02; 27,9</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22,01; 29,86</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 25,05</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21,3; 29,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>50,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>57,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>56,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,17; 56,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,08; 59,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,72; 67,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,38; 61,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>52,31; 60,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,99; 59,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>22,3%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18,12%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22,84; 35,28</t>
+          <t>15,92; 28,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,04; 25,64</t>
+          <t>19,87; 30,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,72; 26,87</t>
+          <t>18,62; 29,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,91; 24,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,05; 29,76</t>
+          <t>10,85; 18,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,23; 24,05</t>
+          <t>18,58; 26,81</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14,32; 22,54</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14,74; 22,36</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 27,23</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17,55; 24,77</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>53,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>48,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>60,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>56,92%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>55,32%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>56,56%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>55,29%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>51,89%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,57; 26,57</t>
+          <t>45,86; 58,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,87</t>
+          <t>48,27; 59,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,77</t>
+          <t>41,52; 55,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,42; 25,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,25; 21,49</t>
+          <t>55,94; 66,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,93; 24,9</t>
+          <t>52,11; 61,65</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50,01; 60,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>52,13; 61,05</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>51,41; 58,67</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>47,03; 56,06</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>55,7%</t>
+          <t>20,78%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26,55%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>25,54%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27,21%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>46,12; 54,97</t>
+          <t>20,75; 32,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>50,35; 57,88</t>
+          <t>17,05; 26,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>54,11; 61,47</t>
+          <t>21,8; 36,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>53,97; 59,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>51,57; 57,12</t>
+          <t>19,62; 29,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>53,16; 58,08</t>
+          <t>16,99; 25,19</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 31,66</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 29,66</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 23,79</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>23,19; 32,48</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,04; 31,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>20,29; 26,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,13; 29,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,76; 22,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>23,92; 28,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,75; 23,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,03%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16,2; 31,34</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 20,74</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>15,02; 23,92</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>50,31%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>57,86%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>54,01%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>41,05; 60,75</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>50,35; 65,78</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>47,93; 60,45</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>27,09%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>19,66; 36,46</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>20,31; 34,64</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 32,74</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>23,05%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>23,24%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>22,88%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 27,55</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>19,79; 26,08</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>21,11; 31,98</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>14,01; 18,81</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>20,71; 25,63</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>20,18; 26,34</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>17,72; 22,09</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>20,94; 24,73</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 27,72</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>50,05%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>54,12%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>49,19%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>57,09%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>56,64%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>52,04%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>53,65%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>55,41%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>50,64%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>45,36; 54,35</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>50,5; 57,83</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>43,97; 53,5</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>53,96; 60,18</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>53,53; 59,5</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>48,6; 55,43</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>50,79; 56,11</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>53,22; 57,81</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>47,36; 53,43</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>26,63%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>23,17%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>24,72%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>26,56%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 31,08</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 26,01</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>21,89; 30,88</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>23,63; 29,37</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 22,91</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 27,9</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>24,43; 29,39</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>19,91; 23,62</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>22,68; 28,31</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P30-Estudios-long_dif.xlsx
+++ b/data/long_dif/P30-Estudios-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -770,7 +770,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -884,7 +884,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1116,7 +1116,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1230,7 +1230,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1576,7 +1576,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1808,7 +1808,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1922,7 +1922,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
